--- a/機械設計/_BOM/CU-SAS003.xlsx
+++ b/機械設計/_BOM/CU-SAS003.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\2022-KawasakiRobot\機械設計\_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{254D550E-3817-470F-9A06-418D00845A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9EC834-50DC-4913-82D0-5D4F44B5407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="-2220" windowWidth="14400" windowHeight="10845" xr2:uid="{26E4684C-8F7D-4D24-8E31-2E1C49F2E03C}"/>
+    <workbookView xWindow="42120" yWindow="6870" windowWidth="14400" windowHeight="10845" xr2:uid="{AB0F97B0-27A0-430B-B91B-4131F3C8F603}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{BC812528-CBDF-4503-BFC3-551CD935E497}" mergeInterval="0" personalView="1" xWindow="-1198" yWindow="-148" windowWidth="960" windowHeight="723" activeSheetId="1"/>
+    <customWorkbookView name="DESKTOP-1 - 個人用ビュー" guid="{276C2A67-78CC-430C-914E-C04F5260CA87}" mergeInterval="0" personalView="1" xWindow="2808" yWindow="458" windowWidth="960" windowHeight="723" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -263,8 +263,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{143DFB30-9B67-47BB-8E0A-A9C044E6A785}">
-  <header guid="{143DFB30-9B67-47BB-8E0A-A9C044E6A785}" dateTime="2023-07-13T15:24:35" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1B719066-674E-4569-BCE9-34E3B375BB38}">
+  <header guid="{1B719066-674E-4569-BCE9-34E3B375BB38}" dateTime="2023-07-16T16:52:49" maxSheetId="2" userName="DESKTOP-1" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE965B3-EFC4-4E9F-B78E-6A593F6B23BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3904B2D0-81C4-4FA0-9006-C24722DD4EE9}">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -960,7 +960,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{BC812528-CBDF-4503-BFC3-551CD935E497}">
+    <customSheetView guid="{276C2A67-78CC-430C-914E-C04F5260CA87}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
